--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_Generic.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_Generic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -108,9 +108,15 @@
 </t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t xml:space="preserve">wait(3);
 validate1;
-Click(generic_test_link);
+link_Click(generic_test_link);
 validate2;
 SelectTestToRun(VT366_0096_string);
 validate3;
@@ -124,6 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -669,19 +676,19 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="44.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="44.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" thickBot="1">
@@ -745,7 +752,9 @@
       <c r="I2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="179.25" thickBot="1">
@@ -766,13 +775,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="17"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K3" s="2"/>
     </row>
   </sheetData>
@@ -791,9 +802,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_Generic.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_Generic.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -108,12 +108,6 @@
 </t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t xml:space="preserve">wait(3);
 validate1;
 link_Click(generic_test_link);
@@ -130,7 +124,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -676,19 +669,19 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="44.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" thickBot="1">
@@ -752,9 +745,7 @@
       <c r="I2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="179.25" thickBot="1">
@@ -775,15 +766,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="17"/>
-      <c r="J3" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
   </sheetData>
@@ -802,9 +791,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_Generic.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_Generic.xlsx
@@ -669,7 +669,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_Generic.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_Generic.xlsx
@@ -76,9 +76,31 @@
 };
 validate3
 {
-validate_Text_Exists=VT366-0095
+validate_Text_Exists=VT366-0096
 };
 </t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(generic_test_link);
+validate2;
+SelectTestToRun(VT366_0095_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(2);
+CheckGenericValues(uuid);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(generic_test_link);
+validate2;
+SelectTestToRun(VT366_0096_string);
+validate3;
+ClickRunTest(runtest_top_xpath);
+wait(2);
+CheckGenericValues(oeminfo);</t>
   </si>
   <si>
     <t xml:space="preserve">validate1
@@ -91,32 +113,8 @@
 };
 validate3
 {
-validate_Text_Exists=VT366-0096
+validate_Text_Exists=VT366-0095
 };
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(generic_test_link);
-validate2;
-SelectTestToRun(VT366_0095_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-CheckGenericValues(uuid);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(generic_test_link);
-validate2;
-SelectTestToRun(VT366_0096_string);
-validate3;
-ClickRunTest(runtest_top_xpath);
-wait(2);
-CheckGenericValues(oeminfo);
 </t>
   </si>
 </sst>
@@ -717,7 +715,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="179.25" thickBot="1">
+    <row r="2" spans="1:11" ht="166.5" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -737,10 +735,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>11</v>
@@ -766,10 +764,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="2"/>
